--- a/初赛/train-1-server.xlsx
+++ b/初赛/train-1-server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385DD2A-2B14-42F6-AACF-ABBC333472CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D619DDD-0D39-447E-80F2-A7C2965871DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>服务器型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,10 +279,6 @@
   </si>
   <si>
     <t>能耗成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性价比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,7 +616,7 @@
     <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,11 +632,8 @@
       <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -656,12 +649,8 @@
       <c r="E2">
         <v>176</v>
       </c>
-      <c r="F2">
-        <f>(D2+E2*365)/(B2+C2/8)</f>
-        <v>510.14241486068113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -677,12 +666,8 @@
       <c r="E3">
         <v>139</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">(D3+E3*365)/(B3+C3/8)</f>
-        <v>448.06620689655171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -698,12 +683,8 @@
       <c r="E4">
         <v>152</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>376.468583599574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -719,12 +700,8 @@
       <c r="E5">
         <v>88</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>340.82430213464698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -740,12 +717,8 @@
       <c r="E6">
         <v>167</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>364.04147031102735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -761,12 +734,8 @@
       <c r="E7">
         <v>305</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>443.58138081849421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -782,12 +751,8 @@
       <c r="E8">
         <v>166</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>368.00947867298578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -803,12 +768,8 @@
       <c r="E9">
         <v>132</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>686.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -824,12 +785,8 @@
       <c r="E10">
         <v>173</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>371.50276243093924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -845,12 +802,8 @@
       <c r="E11">
         <v>153</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>321.68043087971273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -866,12 +819,8 @@
       <c r="E12">
         <v>70</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>344.20210526315788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -887,12 +836,8 @@
       <c r="E13">
         <v>294</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>450.02435011516945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -908,12 +853,8 @@
       <c r="E14">
         <v>77</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>445.08550185873605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -929,12 +870,8 @@
       <c r="E15">
         <v>130</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>387.07156673114122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -950,12 +887,8 @@
       <c r="E16">
         <v>141</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>563.61334473909324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -971,12 +904,8 @@
       <c r="E17">
         <v>149</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>467.02629804450436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -992,12 +921,8 @@
       <c r="E18">
         <v>290</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>439.27958387516253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1013,12 +938,8 @@
       <c r="E19">
         <v>121</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>457.73236009732358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1034,12 +955,8 @@
       <c r="E20">
         <v>99</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>631.71862068965515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1055,12 +972,8 @@
       <c r="E21">
         <v>226</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>356.88482384823845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1076,12 +989,8 @@
       <c r="E22">
         <v>257</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>357.79635712152884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1097,12 +1006,8 @@
       <c r="E23">
         <v>223</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>331.20255183413076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1118,12 +1023,8 @@
       <c r="E24">
         <v>128</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>326.21880153930732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1139,12 +1040,8 @@
       <c r="E25">
         <v>186</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>616.13636363636363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1160,12 +1057,8 @@
       <c r="E26">
         <v>220</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>406.46312450436164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1181,12 +1074,8 @@
       <c r="E27">
         <v>250</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>486.67336683417085</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1202,12 +1091,8 @@
       <c r="E28">
         <v>310</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>347.00626506024099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1223,12 +1108,8 @@
       <c r="E29">
         <v>165</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>319.97308662741801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1244,12 +1125,8 @@
       <c r="E30">
         <v>299</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>400.92112838226825</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1265,12 +1142,8 @@
       <c r="E31">
         <v>122</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>357.45203761755488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1286,12 +1159,8 @@
       <c r="E32">
         <v>361</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>380.77734994337487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1307,12 +1176,8 @@
       <c r="E33">
         <v>186</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>319.64264705882351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1328,12 +1193,8 @@
       <c r="E34">
         <v>154</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>516.98567335243558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1349,12 +1210,8 @@
       <c r="E35">
         <v>187</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>384.76106194690266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1370,12 +1227,8 @@
       <c r="E36">
         <v>76</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>331.51830443159923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1391,12 +1244,8 @@
       <c r="E37">
         <v>224</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>321.89603199015687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1412,12 +1261,8 @@
       <c r="E38">
         <v>75</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>437.43538268506899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1433,12 +1278,8 @@
       <c r="E39">
         <v>176</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>525.4342021614749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1454,12 +1295,8 @@
       <c r="E40">
         <v>144</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>341.05434230573894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1475,12 +1312,8 @@
       <c r="E41">
         <v>54</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>404.7177814029364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1496,12 +1329,8 @@
       <c r="E42">
         <v>133</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>683.2043715846994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1517,12 +1346,8 @@
       <c r="E43">
         <v>102</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>332.41263157894736</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1538,12 +1363,8 @@
       <c r="E44">
         <v>146</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>404.11597633136097</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1559,12 +1380,8 @@
       <c r="E45">
         <v>151</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>357.51187468418391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1580,12 +1397,8 @@
       <c r="E46">
         <v>231</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>333.16105100463676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1601,12 +1414,8 @@
       <c r="E47">
         <v>78</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>516.080459770115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1622,12 +1431,8 @@
       <c r="E48">
         <v>258</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>475.54267566494639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1643,12 +1448,8 @@
       <c r="E49">
         <v>128</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>712.88625592417065</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1664,12 +1465,8 @@
       <c r="E50">
         <v>82</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>540.20338983050851</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1685,12 +1482,8 @@
       <c r="E51">
         <v>203</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>467.25558312655085</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1706,12 +1499,8 @@
       <c r="E52">
         <v>156</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>360.78252234359485</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1727,12 +1516,8 @@
       <c r="E53">
         <v>120</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>420.20420420420419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1748,12 +1533,8 @@
       <c r="E54">
         <v>297</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>373.7473002159827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1769,12 +1550,8 @@
       <c r="E55">
         <v>52</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>370.58385093167703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1790,12 +1567,8 @@
       <c r="E56">
         <v>61</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>400.61276595744681</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1811,12 +1584,8 @@
       <c r="E57">
         <v>152</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>701.31343283582089</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1832,12 +1601,8 @@
       <c r="E58">
         <v>77</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>505.14124293785312</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1853,12 +1618,8 @@
       <c r="E59">
         <v>120</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>373.29341317365271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1874,12 +1635,8 @@
       <c r="E60">
         <v>186</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>462.75935828877004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1895,12 +1652,8 @@
       <c r="E61">
         <v>112</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>428.6251012145749</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1916,12 +1669,8 @@
       <c r="E62">
         <v>179</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>485.56450671336836</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1937,12 +1686,8 @@
       <c r="E63">
         <v>152</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>697.67058823529408</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1958,12 +1703,8 @@
       <c r="E64">
         <v>145</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>355.43641160949869</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1979,12 +1720,8 @@
       <c r="E65">
         <v>90</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>323.56723338485318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2000,12 +1737,8 @@
       <c r="E66">
         <v>53</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>351.34964028776977</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2021,12 +1754,8 @@
       <c r="E67">
         <v>285</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F81" si="1">(D67+E67*365)/(B67+C67/8)</f>
-        <v>339.34473079867314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2042,12 +1771,8 @@
       <c r="E68">
         <v>282</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>329.69894631209235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2063,12 +1788,8 @@
       <c r="E69">
         <v>186</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>359.81015820149872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2084,12 +1805,8 @@
       <c r="E70">
         <v>76</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>516.94289897510976</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2105,12 +1822,8 @@
       <c r="E71">
         <v>71</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>440.77556440903055</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2126,12 +1839,8 @@
       <c r="E72">
         <v>129</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>332.04664075513602</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2147,12 +1856,8 @@
       <c r="E73">
         <v>134</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>318.23828920570264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2168,12 +1873,8 @@
       <c r="E74">
         <v>150</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>655.8077285579642</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2189,12 +1890,8 @@
       <c r="E75">
         <v>237</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>418.35285228560633</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2210,12 +1907,8 @@
       <c r="E76">
         <v>168</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>400.2162162162162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2231,12 +1924,8 @@
       <c r="E77">
         <v>350</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>391.02518589589829</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2252,12 +1941,8 @@
       <c r="E78">
         <v>190</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>586.61986754966892</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2273,12 +1958,8 @@
       <c r="E79">
         <v>308</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>368.62724935732649</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2294,12 +1975,8 @@
       <c r="E80">
         <v>180</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>635.72886519421172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2314,10 +1991,6 @@
       </c>
       <c r="E81">
         <v>314</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>409.72276673200781</v>
       </c>
     </row>
   </sheetData>
